--- a/fuentes/contenidos/grado08/guion02/SolicitudGrafica_LE_08_02_REC310.xlsx
+++ b/fuentes/contenidos/grado08/guion02/SolicitudGrafica_LE_08_02_REC310.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_02_CO\PROCESO OCTUBRE NUEVO\SOLICITUDES_GRAFICAS_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,16 @@
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
   <si>
     <t>Fecha:</t>
   </si>
@@ -590,43 +595,46 @@
     <t>Trabajar un video</t>
   </si>
   <si>
+    <t>LE_08_02_REC310</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/sites/default/files/imagecache/imagen-libros-ficha/2837_0.jpg</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/boletin-cultural/sites/default/files/img_art_revista/01_television.png</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/sites/default/files/libros/27831/40.jpg</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/sites/default/files/lablaa/revistas/credencial/enero-dic1993/images/ed47-5.jpg</t>
+  </si>
+  <si>
+    <t>http://admin.banrepcultural.org/sites/default/files/sutatenza_003276.jpg</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/sites/default/files/imagecache/imagen-libros-ficha/biografias/rojagust.jpg</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/gabo/images/1986.jpg</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/sites/default/files/imagecache/imagen-galeria-imagenes/pagina/92658/Expo-Dayanita_Singh-El_Tiempo.com-Feb-25-11.jpg</t>
+  </si>
+  <si>
+    <t>http://admin.banrepcultural.org/sites/default/files/hjckplay.png</t>
+  </si>
+  <si>
+    <t>http://www.banrepcultural.org/sites/default/files/pagina/86985/Expo_-_Ferrari_inaugura_exposicion_en_bogota_-_KIEN__KE_-_1_abril_2011.jpg</t>
+  </si>
+  <si>
+    <t>Luz Amparo Rubiano Acosta</t>
+  </si>
+  <si>
     <t>La literatura colombiana de la Colonia</t>
-  </si>
-  <si>
-    <t>Luz amparo Rubiano</t>
-  </si>
-  <si>
-    <t>Fotografía</t>
-  </si>
-  <si>
-    <t>http://www.banrepcultural.org/blaavirtual/hemeroteca-digital-historica/papel-periodico-santafe</t>
-  </si>
-  <si>
-    <t>LE_08_02_CO_REC310</t>
-  </si>
-  <si>
-    <t>Periodismo y política: una combinación poderosa y peligrosa</t>
-  </si>
-  <si>
-    <t>El periodismo en Colombia</t>
-  </si>
-  <si>
-    <t>La libertad de expresión en Colombia</t>
-  </si>
-  <si>
-    <t>Traducir: Investigación</t>
-  </si>
-  <si>
-    <t>La escritura de la crónica y el testimonio documental ha seducido por igual a periodistas y novelistas.</t>
-  </si>
-  <si>
-    <t>Las opciones de publicación para periodistas y escritores, se ha incrementado en la era digital, con espacios como los blogs.</t>
-  </si>
-  <si>
-    <t>El derecho a la libertad de expresión está considerado como parte de los derechos humanos.</t>
-  </si>
-  <si>
-    <t>Colombia registra uno de los índices más altos de muertes a periodistas en razón a su oficio.</t>
   </si>
 </sst>
 </file>
@@ -1049,11 +1057,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1062,7 +1070,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1070,17 +1078,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1090,7 +1098,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1098,12 +1106,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,18 +1120,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,11 +1161,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1167,10 +1175,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1180,7 +1188,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1254,16 +1262,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,23 +1279,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,7 +1780,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1789,333 +1797,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>981593</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12371917" y="2190750"/>
-          <a:ext cx="698500" cy="939260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>299663</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1334807</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>827023</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12104242" y="3328399"/>
-          <a:ext cx="1035144" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342472</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1354972</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>784213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12147051" y="4195280"/>
-          <a:ext cx="1012500" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>374578</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>42809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1390252</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>762809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12179157" y="4976545"/>
-          <a:ext cx="1015674" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342472</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1452061</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>784213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="5 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12147051" y="5961151"/>
-          <a:ext cx="1109589" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>652838</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>96321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1060327</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>816321</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12457417" y="6849439"/>
-          <a:ext cx="407489" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449495</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53511</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1273922</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>773511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="7 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12254074" y="7652107"/>
-          <a:ext cx="824427" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2162,15 +1857,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2217,15 +1912,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2333,7 +2028,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
@@ -2382,7 +2077,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
@@ -2437,7 +2132,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
@@ -2815,24 +2510,24 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="31.5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
@@ -2899,7 +2594,7 @@
       </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80">
-        <v>42235</v>
+        <v>42297</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="58"/>
@@ -2926,7 +2621,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2958,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -3009,13 +2704,13 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3105,13 +2800,13 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -3125,7 +2820,7 @@
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_08_02_CO_REC310_IMG01.jpg</v>
+        <v>LE_08_02_REC310_IMG01.jpg</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3140,21 +2835,19 @@
         <v/>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
-        <v>193</v>
-      </c>
+      <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62">
-        <v>260931398</v>
+      <c r="B11" s="62" t="s">
+        <v>190</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3168,7 +2861,7 @@
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_08_02_CO_REC310_IMG02.jpg</v>
+        <v>LE_08_02_REC310_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3183,21 +2876,19 @@
         <v/>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="65" t="s">
-        <v>194</v>
-      </c>
+      <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="62">
-        <v>273763445</v>
+        <v>290001401</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3207,40 +2898,38 @@
         <v>189</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_CO_REC310_IMG03n.jpg</v>
+        <v>LE_08_02_REC310_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_02_CO_REC310_IMG03a.jpg</v>
+        <v/>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
+        <v/>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="64" t="s">
-        <v>192</v>
-      </c>
+      <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62">
-        <v>150431465</v>
+      <c r="B13" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3254,7 +2943,7 @@
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_CO_REC310_IMG04n.jpg</v>
+        <v>LE_08_02_REC310_IMG04n.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3262,30 +2951,26 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_02_CO_REC310_IMG04a.jpg</v>
+        <v>LE_08_02_REC310_IMG04a.jpg</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J13" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>196</v>
-      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="62">
-        <v>291943763</v>
+      <c r="B14" s="62" t="s">
+        <v>192</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3299,7 +2984,7 @@
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_CO_REC310_IMG05n.jpg</v>
+        <v>LE_08_02_REC310_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3307,28 +2992,26 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_02_CO_REC310_IMG05a.jpg</v>
+        <v>LE_08_02_REC310_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="64"/>
-      <c r="K14" s="64" t="s">
-        <v>197</v>
-      </c>
+      <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="62">
-        <v>74201581</v>
+      <c r="B15" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3025,7 @@
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_CO_REC310_IMG06n.jpg</v>
+        <v>LE_08_02_REC310_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3350,28 +3033,26 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_02_CO_REC310_IMG06a.jpg</v>
+        <v>LE_08_02_REC310_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="K15" s="66" t="s">
-        <v>198</v>
-      </c>
+      <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="62">
-        <v>242704603</v>
+      <c r="B16" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3385,7 +3066,7 @@
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_08_02_CO_REC310_IMG07n.jpg</v>
+        <v>LE_08_02_REC310_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3393,48 +3074,52 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_02_CO_REC310_IMG07a.jpg</v>
+        <v>LE_08_02_REC310_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J16" s="67"/>
-      <c r="K16" s="68" t="s">
-        <v>199</v>
-      </c>
+      <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_02_REC310_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_02_REC310_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
@@ -3443,33 +3128,39 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>196</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_02_REC310_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_02_REC310_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J18" s="66"/>
       <c r="K18" s="66"/>
@@ -3478,33 +3169,39 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_02_REC310_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_02_REC310_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J19" s="67"/>
       <c r="K19" s="68"/>
@@ -3513,33 +3210,39 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
+        <v>IMG11</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>198</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_02_REC310_IMG11n.jpg</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_02_REC310_IMG11a.jpg</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J20" s="64"/>
       <c r="K20" s="66"/>
@@ -6338,7 +6041,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6351,15 +6053,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11" style="22"/>
+    <col min="1" max="1" width="72.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="22"/>
     <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
-    <col min="5" max="7" width="11" style="22"/>
+    <col min="5" max="7" width="10.875" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="22"/>
+    <col min="12" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6645,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6944,7 +6646,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>714375</xdr:rowOff>
                   </to>
@@ -6960,7 +6662,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>485775</xdr:rowOff>
                   </from>
@@ -6982,7 +6684,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>485775</xdr:rowOff>
                   </from>
@@ -7004,15 +6706,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7026,15 +6728,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7048,15 +6750,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7081,14 +6783,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
     <col min="11" max="16384" width="10.875" style="22"/>
   </cols>
@@ -7135,7 +6837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -7160,7 +6862,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -7189,7 +6891,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -7218,7 +6920,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -7247,7 +6949,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7272,7 +6974,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7301,7 +7003,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7330,7 +7032,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7359,7 +7061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7384,7 +7086,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -7413,7 +7115,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7442,7 +7144,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7465,7 +7167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
@@ -7491,7 +7193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7519,7 +7221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7547,7 +7249,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7573,7 +7275,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7597,7 +7299,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7621,7 +7323,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7645,7 +7347,7 @@
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7669,7 +7371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7698,7 +7400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7721,7 +7423,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
-    <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7745,7 +7447,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7774,7 +7476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7798,7 +7500,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7822,7 +7524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7851,7 +7553,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7874,7 +7576,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -7891,7 +7593,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -7906,7 +7608,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -7927,7 +7629,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -7944,7 +7646,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -7973,7 +7675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -8002,7 +7704,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -8025,7 +7727,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
